--- a/test/B.xlsx
+++ b/test/B.xlsx
@@ -470,10 +470,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -1019,10 +1019,10 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2279,10 +2279,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2322,10 +2322,10 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
